--- a/data/ship list.xlsx
+++ b/data/ship list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资料源" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="368">
   <si>
     <t>#</t>
   </si>
@@ -1133,6 +1133,34 @@
     <t>命中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>深海舰队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sukhbaatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Altmark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steiermark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goldenfels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷路的运输舰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1952,7 +1980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2330,6 +2358,7 @@
     <xf numFmtId="0" fontId="2" fillId="123" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -18233,14 +18262,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y312"/>
+  <dimension ref="A1:Y322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="G317" sqref="G317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="124" customWidth="1"/>
     <col min="21" max="21" width="11.875" customWidth="1"/>
   </cols>
@@ -42886,6 +42916,508 @@
       </c>
       <c r="Y312" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>249</v>
+      </c>
+      <c r="B316" t="s">
+        <v>250</v>
+      </c>
+      <c r="C316" t="s">
+        <v>251</v>
+      </c>
+      <c r="D316" t="s">
+        <v>252</v>
+      </c>
+      <c r="E316" t="s">
+        <v>253</v>
+      </c>
+      <c r="F316" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="G316" t="s">
+        <v>255</v>
+      </c>
+      <c r="H316" t="s">
+        <v>256</v>
+      </c>
+      <c r="I316" t="s">
+        <v>257</v>
+      </c>
+      <c r="J316" t="s">
+        <v>258</v>
+      </c>
+      <c r="K316" t="s">
+        <v>259</v>
+      </c>
+      <c r="L316" t="s">
+        <v>360</v>
+      </c>
+      <c r="M316" t="s">
+        <v>260</v>
+      </c>
+      <c r="N316" t="s">
+        <v>261</v>
+      </c>
+      <c r="O316" t="s">
+        <v>262</v>
+      </c>
+      <c r="P316" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>264</v>
+      </c>
+      <c r="R316" t="s">
+        <v>265</v>
+      </c>
+      <c r="S316" t="s">
+        <v>266</v>
+      </c>
+      <c r="T316" t="s">
+        <v>267</v>
+      </c>
+      <c r="U316" t="s">
+        <v>349</v>
+      </c>
+      <c r="V316" t="s">
+        <v>350</v>
+      </c>
+      <c r="W316" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317" t="s">
+        <v>362</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>450</v>
+      </c>
+      <c r="E317">
+        <v>30</v>
+      </c>
+      <c r="F317" s="124">
+        <v>3</v>
+      </c>
+      <c r="G317" s="127">
+        <v>4</v>
+      </c>
+      <c r="H317" s="127">
+        <v>150</v>
+      </c>
+      <c r="I317" s="127">
+        <v>150</v>
+      </c>
+      <c r="J317" s="127">
+        <v>180</v>
+      </c>
+      <c r="K317" s="127">
+        <v>120</v>
+      </c>
+      <c r="L317" s="127">
+        <v>90</v>
+      </c>
+      <c r="M317" s="127">
+        <v>55</v>
+      </c>
+      <c r="N317" s="127">
+        <v>110</v>
+      </c>
+      <c r="O317" s="127">
+        <v>50</v>
+      </c>
+      <c r="P317" s="127">
+        <v>0</v>
+      </c>
+      <c r="Q317" s="127">
+        <v>1</v>
+      </c>
+      <c r="R317" s="127">
+        <v>1</v>
+      </c>
+      <c r="S317" s="127">
+        <v>220</v>
+      </c>
+      <c r="T317" s="127">
+        <v>0</v>
+      </c>
+      <c r="U317" s="127">
+        <v>0</v>
+      </c>
+      <c r="V317" s="127">
+        <v>0</v>
+      </c>
+      <c r="W317" s="127">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318" t="s">
+        <v>363</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>180</v>
+      </c>
+      <c r="E318">
+        <v>30</v>
+      </c>
+      <c r="F318" s="124">
+        <v>3</v>
+      </c>
+      <c r="G318" s="127">
+        <v>4</v>
+      </c>
+      <c r="H318" s="127">
+        <v>117</v>
+      </c>
+      <c r="I318" s="127">
+        <v>118</v>
+      </c>
+      <c r="J318" s="127">
+        <v>121</v>
+      </c>
+      <c r="K318" s="127">
+        <v>96</v>
+      </c>
+      <c r="L318" s="127">
+        <v>90</v>
+      </c>
+      <c r="M318" s="127">
+        <v>45</v>
+      </c>
+      <c r="N318" s="127">
+        <v>97</v>
+      </c>
+      <c r="O318" s="127">
+        <v>50</v>
+      </c>
+      <c r="P318" s="127">
+        <v>0</v>
+      </c>
+      <c r="Q318" s="127">
+        <v>1</v>
+      </c>
+      <c r="R318" s="127">
+        <v>1</v>
+      </c>
+      <c r="S318" s="127">
+        <v>220</v>
+      </c>
+      <c r="T318" s="127">
+        <v>0</v>
+      </c>
+      <c r="U318" s="127">
+        <v>0</v>
+      </c>
+      <c r="V318" s="127">
+        <v>0</v>
+      </c>
+      <c r="W318" s="127">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>3</v>
+      </c>
+      <c r="B319" t="s">
+        <v>364</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>360</v>
+      </c>
+      <c r="E319">
+        <v>30</v>
+      </c>
+      <c r="F319" s="124">
+        <v>3</v>
+      </c>
+      <c r="G319" s="127">
+        <v>4</v>
+      </c>
+      <c r="H319" s="127">
+        <v>150</v>
+      </c>
+      <c r="I319" s="127">
+        <v>150</v>
+      </c>
+      <c r="J319" s="127">
+        <v>180</v>
+      </c>
+      <c r="K319" s="127">
+        <v>120</v>
+      </c>
+      <c r="L319" s="127">
+        <v>90</v>
+      </c>
+      <c r="M319" s="127">
+        <v>55</v>
+      </c>
+      <c r="N319" s="127">
+        <v>110</v>
+      </c>
+      <c r="O319" s="127">
+        <v>50</v>
+      </c>
+      <c r="P319" s="127">
+        <v>0</v>
+      </c>
+      <c r="Q319" s="127">
+        <v>1</v>
+      </c>
+      <c r="R319" s="127">
+        <v>1</v>
+      </c>
+      <c r="S319" s="127">
+        <v>220</v>
+      </c>
+      <c r="T319" s="127">
+        <v>0</v>
+      </c>
+      <c r="U319" s="127">
+        <v>0</v>
+      </c>
+      <c r="V319" s="127">
+        <v>0</v>
+      </c>
+      <c r="W319" s="127">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>4</v>
+      </c>
+      <c r="B320" t="s">
+        <v>365</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>180</v>
+      </c>
+      <c r="E320">
+        <v>30</v>
+      </c>
+      <c r="F320" s="124">
+        <v>3</v>
+      </c>
+      <c r="G320" s="127">
+        <v>4</v>
+      </c>
+      <c r="H320" s="127">
+        <v>117</v>
+      </c>
+      <c r="I320" s="127">
+        <v>118</v>
+      </c>
+      <c r="J320" s="127">
+        <v>121</v>
+      </c>
+      <c r="K320" s="127">
+        <v>96</v>
+      </c>
+      <c r="L320" s="127">
+        <v>90</v>
+      </c>
+      <c r="M320" s="127">
+        <v>45</v>
+      </c>
+      <c r="N320" s="127">
+        <v>97</v>
+      </c>
+      <c r="O320" s="127">
+        <v>50</v>
+      </c>
+      <c r="P320" s="127">
+        <v>0</v>
+      </c>
+      <c r="Q320" s="127">
+        <v>1</v>
+      </c>
+      <c r="R320" s="127">
+        <v>1</v>
+      </c>
+      <c r="S320" s="127">
+        <v>220</v>
+      </c>
+      <c r="T320" s="127">
+        <v>0</v>
+      </c>
+      <c r="U320" s="127">
+        <v>0</v>
+      </c>
+      <c r="V320" s="127">
+        <v>0</v>
+      </c>
+      <c r="W320" s="127">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>5</v>
+      </c>
+      <c r="B321" t="s">
+        <v>366</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>180</v>
+      </c>
+      <c r="E321">
+        <v>30</v>
+      </c>
+      <c r="F321" s="124">
+        <v>3</v>
+      </c>
+      <c r="G321" s="127">
+        <v>4</v>
+      </c>
+      <c r="H321" s="127">
+        <v>117</v>
+      </c>
+      <c r="I321" s="127">
+        <v>118</v>
+      </c>
+      <c r="J321" s="127">
+        <v>121</v>
+      </c>
+      <c r="K321" s="127">
+        <v>96</v>
+      </c>
+      <c r="L321" s="127">
+        <v>90</v>
+      </c>
+      <c r="M321" s="127">
+        <v>45</v>
+      </c>
+      <c r="N321" s="127">
+        <v>97</v>
+      </c>
+      <c r="O321" s="127">
+        <v>50</v>
+      </c>
+      <c r="P321" s="127">
+        <v>0</v>
+      </c>
+      <c r="Q321" s="127">
+        <v>1</v>
+      </c>
+      <c r="R321" s="127">
+        <v>1</v>
+      </c>
+      <c r="S321" s="127">
+        <v>220</v>
+      </c>
+      <c r="T321" s="127">
+        <v>0</v>
+      </c>
+      <c r="U321" s="127">
+        <v>0</v>
+      </c>
+      <c r="V321" s="127">
+        <v>0</v>
+      </c>
+      <c r="W321" s="127">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>6</v>
+      </c>
+      <c r="B322" t="s">
+        <v>367</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>10</v>
+      </c>
+      <c r="E322">
+        <v>15</v>
+      </c>
+      <c r="F322" s="124">
+        <v>1</v>
+      </c>
+      <c r="G322" s="127">
+        <v>4</v>
+      </c>
+      <c r="H322" s="127">
+        <v>20</v>
+      </c>
+      <c r="I322" s="127">
+        <v>0</v>
+      </c>
+      <c r="J322" s="127">
+        <v>10</v>
+      </c>
+      <c r="K322" s="127">
+        <v>20</v>
+      </c>
+      <c r="L322" s="127">
+        <v>90</v>
+      </c>
+      <c r="M322" s="127">
+        <v>50</v>
+      </c>
+      <c r="N322" s="127">
+        <v>0</v>
+      </c>
+      <c r="O322" s="127">
+        <v>15</v>
+      </c>
+      <c r="P322" s="127">
+        <v>0</v>
+      </c>
+      <c r="Q322" s="127">
+        <v>1</v>
+      </c>
+      <c r="R322" s="127">
+        <v>1</v>
+      </c>
+      <c r="S322" s="127">
+        <v>0</v>
+      </c>
+      <c r="T322" s="127">
+        <v>0</v>
+      </c>
+      <c r="U322" s="127">
+        <v>0</v>
+      </c>
+      <c r="V322" s="127">
+        <v>0</v>
+      </c>
+      <c r="W322" s="127">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
